--- a/Tsk.xlsx
+++ b/Tsk.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4AEBEE-58E8-4A16-9172-456A48B1BAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD4D5F8-D72D-46AE-A506-102B0AD8EE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="252" yWindow="36" windowWidth="11808" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1261,6 +1261,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1273,13 +1280,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1337,37 +1337,7 @@
     <cellStyle name="名前" xfId="11" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="良い" xfId="18" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1614,15 +1584,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDo_リスト" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="26"/>
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="totalRow" dxfId="24"/>
-      <tableStyleElement type="firstColumn" dxfId="23"/>
-      <tableStyleElement type="lastColumn" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
+      <tableStyleElement type="lastColumn" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2040,8 +2010,8 @@
   <dimension ref="A1:BM27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2088,120 +2058,120 @@
         <v>2</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="57">
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="60">
         <v>44643</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="57">
         <f>J5</f>
         <v>44641</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="54">
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="57">
         <f>Q5</f>
         <v>44648</v>
       </c>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="54">
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="57">
         <f>X5</f>
         <v>44655</v>
       </c>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="54">
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="57">
         <f>AE5</f>
         <v>44662</v>
       </c>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="54">
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="57">
         <f>AL5</f>
         <v>44669</v>
       </c>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="54">
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="57">
         <f>AS5</f>
         <v>44676</v>
       </c>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="54">
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="57">
         <f>AZ5</f>
         <v>44683</v>
       </c>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="55"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="54">
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="58"/>
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="57">
         <f>BG5</f>
         <v>44690</v>
       </c>
-      <c r="BH4" s="55"/>
-      <c r="BI4" s="55"/>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="55"/>
-      <c r="BM4" s="56"/>
+      <c r="BH4" s="58"/>
+      <c r="BI4" s="58"/>
+      <c r="BJ4" s="58"/>
+      <c r="BK4" s="58"/>
+      <c r="BL4" s="58"/>
+      <c r="BM4" s="59"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
       <c r="J5" s="47">
         <f>プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+2+7*(週_表示-1)</f>
         <v>44641</v>
@@ -2834,7 +2804,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="31">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="50">
         <v>44643</v>
@@ -3080,7 +3050,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="31">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F12" s="50">
         <v>44643</v>
@@ -4334,11 +4304,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
     <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
@@ -4346,6 +4311,11 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <conditionalFormatting sqref="E7:E25">
@@ -4363,15 +4333,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BM23">
-    <cfRule type="expression" dxfId="17" priority="60">
+    <cfRule type="expression" dxfId="14" priority="60">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:BM23">
-    <cfRule type="expression" dxfId="16" priority="54">
+    <cfRule type="expression" dxfId="13" priority="54">
       <formula>AND(タスク_開始&lt;=J$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="55" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=J$5,タスク_開始&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tsk.xlsx
+++ b/Tsk.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD4D5F8-D72D-46AE-A506-102B0AD8EE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC29EFE4-DBF2-450E-B79B-F38A4F0D4889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="36" windowWidth="11808" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -196,16 +196,6 @@
     <t>齋藤</t>
     <rPh sb="0" eb="2">
       <t>サイトウ</t>
-    </rPh>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>プロジェクト名 : ロボットゲーム(仮)</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カリ</t>
     </rPh>
     <phoneticPr fontId="36"/>
   </si>
@@ -257,22 +247,6 @@
     <phoneticPr fontId="36"/>
   </si>
   <si>
-    <t>行動クラスの設計(移動優先)</t>
-    <rPh sb="0" eb="2">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ユウセン</t>
-    </rPh>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
     <t>カメラ処理(追尾)</t>
     <rPh sb="3" eb="5">
       <t>ショリ</t>
@@ -306,29 +280,95 @@
     <phoneticPr fontId="36"/>
   </si>
   <si>
-    <t>仕様がある程度決まり次第</t>
+    <t>COMのクラス設計</t>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>バンプマップの研究</t>
+    <rPh sb="7" eb="9">
+      <t>ケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>バンプマップをフィールドモデルに付ける</t>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>素材が届き次第</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シダイ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>プロジェクト名 : ガンダムゲーム</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>行動クラスの設計(移動、攻撃)</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>仕様がある決まり次第</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="5" eb="6">
       <t>キ</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="8" eb="10">
       <t>シダイ</t>
     </rPh>
     <phoneticPr fontId="36"/>
   </si>
   <si>
-    <t>仕様がある程度決まり次第</t>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>キャラクターのCSV作成</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="36"/>
   </si>
   <si>
-    <t>COMのクラス設計</t>
-    <rPh sb="7" eb="9">
-      <t>セッケイ</t>
+    <t>モック完成目標日:</t>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="36"/>
   </si>
@@ -2011,7 +2051,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2034,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -2049,8 +2089,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="60">
+        <v>44671</v>
+      </c>
+      <c r="G2" s="60"/>
       <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2795,7 +2844,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>37</v>
@@ -2810,12 +2859,12 @@
         <v>44643</v>
       </c>
       <c r="G9" s="50">
-        <v>44654</v>
+        <v>44665</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -2877,7 +2926,7 @@
     <row r="10" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>37</v>
@@ -2892,12 +2941,12 @@
         <v>44654</v>
       </c>
       <c r="G10" s="50">
-        <v>44661</v>
+        <v>44665</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -2959,13 +3008,13 @@
     <row r="11" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="31">
         <v>0</v>
@@ -2973,13 +3022,13 @@
       <c r="F11" s="50">
         <v>44643</v>
       </c>
-      <c r="G11" s="50" t="s">
-        <v>49</v>
+      <c r="G11" s="50">
+        <v>44665</v>
       </c>
       <c r="H11" s="30"/>
-      <c r="I11" s="30" t="e">
+      <c r="I11" s="30">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>23</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -3041,13 +3090,13 @@
     <row r="12" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E12" s="31">
         <v>1</v>
@@ -3123,7 +3172,7 @@
     <row r="13" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>37</v>
@@ -3138,7 +3187,7 @@
         <v>44643</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30" t="e">
@@ -3204,24 +3253,28 @@
     </row>
     <row r="14" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
-      <c r="B14" s="52"/>
+      <c r="B14" s="52" t="s">
+        <v>47</v>
+      </c>
       <c r="C14" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="31">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F14" s="50">
         <v>44643</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="50" t="s">
+        <v>49</v>
+      </c>
       <c r="H14" s="30"/>
-      <c r="I14" s="30" t="str">
+      <c r="I14" s="30" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -3282,7 +3335,9 @@
     </row>
     <row r="15" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
-      <c r="B15" s="52"/>
+      <c r="B15" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="15" t="s">
         <v>37</v>
       </c>
@@ -3292,14 +3347,16 @@
       <c r="E15" s="31">
         <v>0</v>
       </c>
-      <c r="F15" s="50">
-        <v>44643</v>
-      </c>
-      <c r="G15" s="50"/>
+      <c r="F15" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>49</v>
+      </c>
       <c r="H15" s="30"/>
-      <c r="I15" s="30" t="str">
+      <c r="I15" s="30" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -3597,7 +3654,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -3669,10 +3726,10 @@
     <row r="20" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>36</v>
@@ -3684,12 +3741,12 @@
         <v>44615</v>
       </c>
       <c r="G20" s="51">
-        <v>44654</v>
+        <v>44658</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -3751,10 +3808,10 @@
     <row r="21" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="53" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>35</v>
@@ -3766,12 +3823,12 @@
         <v>44615</v>
       </c>
       <c r="G21" s="51">
-        <v>44654</v>
+        <v>44658</v>
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -3833,10 +3890,10 @@
     <row r="22" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>36</v>
@@ -3848,12 +3905,12 @@
         <v>44615</v>
       </c>
       <c r="G22" s="51">
-        <v>44660</v>
+        <v>44658</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -3914,9 +3971,11 @@
     </row>
     <row r="23" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
-      <c r="B23" s="53"/>
+      <c r="B23" s="53" t="s">
+        <v>54</v>
+      </c>
       <c r="C23" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>35</v>
@@ -3927,11 +3986,13 @@
       <c r="F23" s="51">
         <v>44615</v>
       </c>
-      <c r="G23" s="51"/>
+      <c r="G23" s="51">
+        <v>44658</v>
+      </c>
       <c r="H23" s="30"/>
-      <c r="I23" s="30" t="str">
+      <c r="I23" s="30">
         <f t="shared" si="5"/>
-        <v/>
+        <v>44</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -3994,7 +4055,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="53"/>
       <c r="C24" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>35</v>
@@ -4072,7 +4133,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="53"/>
       <c r="C25" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>35</v>
@@ -4150,7 +4211,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="53"/>
       <c r="C26" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>35</v>
@@ -4228,7 +4289,7 @@
       <c r="A27" s="8"/>
       <c r="B27" s="53"/>
       <c r="C27" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>35</v>
@@ -4303,7 +4364,9 @@
       <c r="BM27" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>

--- a/Tsk.xlsx
+++ b/Tsk.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC29EFE4-DBF2-450E-B79B-F38A4F0D4889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75E196D-88C4-4173-85F3-1CCD06A2E81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -333,19 +333,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>仕様がある決まり次第</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シダイ</t>
     </rPh>
     <phoneticPr fontId="36"/>
   </si>
@@ -1307,7 +1294,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1317,9 +1306,7 @@
     <xf numFmtId="180" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2092,14 +2079,14 @@
         <v>50</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="54"/>
       <c r="E2" s="55"/>
-      <c r="F2" s="60">
+      <c r="F2" s="56">
         <v>44671</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="56"/>
       <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2112,10 +2099,10 @@
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="55"/>
-      <c r="F3" s="60">
+      <c r="F3" s="56">
         <v>44643</v>
       </c>
-      <c r="G3" s="60"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -2214,13 +2201,13 @@
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
       <c r="J5" s="47">
         <f>プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+2+7*(週_表示-1)</f>
         <v>44641</v>
@@ -2850,10 +2837,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E9" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="50">
         <v>44643</v>
@@ -2935,7 +2922,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="50">
         <v>44654</v>
@@ -3014,10 +3001,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E11" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="50">
         <v>44643</v>
@@ -3096,7 +3083,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="31">
         <v>1</v>
@@ -3178,21 +3165,21 @@
         <v>37</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E13" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="50">
         <v>44643</v>
       </c>
-      <c r="G13" s="50" t="s">
-        <v>52</v>
+      <c r="G13" s="50">
+        <v>44653</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="I13" s="30" t="e">
+      <c r="I13" s="30">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -3972,7 +3959,7 @@
     <row r="23" spans="1:65" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>38</v>
@@ -4365,6 +4352,9 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="AZ4:BF4"/>
@@ -4376,9 +4366,6 @@
     <mergeCell ref="AE4:AK4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <conditionalFormatting sqref="E7:E25">
